--- a/data/trans_orig/ACT_TRABAJO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ACT_TRABAJO-Edad-trans_orig.xlsx
@@ -3586,12 +3586,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3601,12 +3601,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4205,12 +4205,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8950,97 +8950,97 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>1255</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K34" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>1012</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="inlineStr">
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>1098</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13176,97 +13176,97 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>619</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>744</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O29" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>677</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13780,12 +13780,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -13795,12 +13795,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">

--- a/data/trans_orig/ACT_TRABAJO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ACT_TRABAJO-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en País Vasco</t>
+          <t>Actividad principal en el trabajo en País Vasco (tasa de respuesta: 95,41%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5341,7 +5341,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en Andalucia</t>
+          <t>Actividad principal en el trabajo en Andalucia (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10136,7 +10136,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en C.Valenciana</t>
+          <t>Actividad principal en el trabajo en C.Valenciana (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -14931,7 +14931,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en Barcelona</t>
+          <t>Actividad principal en el trabajo en Barcelona (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ACT_TRABAJO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ACT_TRABAJO-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>166</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2051</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>733</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>2552</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>1741</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>535</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3421</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>4785</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5294</t>
+          <t>14587</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>9115</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>15281</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>6135</t>
+          <t>17613</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>4309</t>
+          <t>11918</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>8330</t>
+          <t>25671</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>19,16%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4857</t>
+          <t>16127</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3378</t>
+          <t>10680</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>23173</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3974</t>
+          <t>9527</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>5742</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5629</t>
+          <t>15274</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>8830</t>
+          <t>25655</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>6716</t>
+          <t>18462</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>11294</t>
+          <t>34174</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>25,5%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15306</t>
+          <t>39047</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13044</t>
+          <t>32281</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17138</t>
+          <t>45842</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
+          <t>60,37%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>53,8%</t>
+          <t>49,91%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>70,87%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15484</t>
+          <t>49961</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13533</t>
+          <t>42889</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17334</t>
+          <t>55467</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>69,23%</t>
+          <t>72,06%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>61,86%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>77,5%</t>
+          <t>80,0%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>30790</t>
+          <t>89008</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>28129</t>
+          <t>79987</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>33457</t>
+          <t>98556</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>66,06%</t>
+          <t>66,42%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>60,35%</t>
+          <t>59,68%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>71,78%</t>
+          <t>73,54%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24246</t>
+          <t>64680</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24246</t>
+          <t>64680</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24246</t>
+          <t>64680</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22366</t>
+          <t>69337</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22366</t>
+          <t>69337</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22366</t>
+          <t>69337</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>46612</t>
+          <t>134017</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>46612</t>
+          <t>134017</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>46612</t>
+          <t>134017</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>512</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2445</t>
+          <t>5832</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>655</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2441</t>
+          <t>5428</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>3766</t>
+          <t>8035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>11878</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>7365</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5438</t>
+          <t>17934</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4286</t>
+          <t>14564</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>9101</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6050</t>
+          <t>21934</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7986</t>
+          <t>26442</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5958</t>
+          <t>19242</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>10717</t>
+          <t>35690</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>20,32%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9974</t>
+          <t>33131</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7770</t>
+          <t>25119</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12423</t>
+          <t>42164</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>48,88%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12273</t>
+          <t>36568</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9899</t>
+          <t>28324</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14822</t>
+          <t>45253</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>47,15%</t>
+          <t>50,61%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>22247</t>
+          <t>69699</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>18817</t>
+          <t>58035</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>25725</t>
+          <t>80290</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>45,7%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13392</t>
+          <t>39191</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11117</t>
+          <t>31344</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15995</t>
+          <t>47751</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13859</t>
+          <t>36165</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11524</t>
+          <t>28644</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16686</t>
+          <t>44353</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>53,08%</t>
+          <t>49,6%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>27251</t>
+          <t>75356</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>23993</t>
+          <t>65051</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>30706</t>
+          <t>87602</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>49,87%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28145</t>
+          <t>86260</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28145</t>
+          <t>86260</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28145</t>
+          <t>86260</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31437</t>
+          <t>89413</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31437</t>
+          <t>89413</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31437</t>
+          <t>89413</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>59582</t>
+          <t>175673</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>59582</t>
+          <t>175673</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>59582</t>
+          <t>175673</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>7951</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>4556</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4145</t>
+          <t>13380</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>2696</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>5809</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>10647</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>6521</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>5786</t>
+          <t>16684</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8566</t>
+          <t>26343</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6440</t>
+          <t>19501</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11358</t>
+          <t>33493</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8362</t>
+          <t>18302</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6159</t>
+          <t>13186</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11017</t>
+          <t>25394</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>16929</t>
+          <t>44645</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>14063</t>
+          <t>35842</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>20337</t>
+          <t>53230</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,4%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18114</t>
+          <t>44809</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15145</t>
+          <t>36949</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21015</t>
+          <t>53007</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>46,44%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20883</t>
+          <t>49984</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17627</t>
+          <t>42257</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23683</t>
+          <t>57926</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>46,92%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>38996</t>
+          <t>94793</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>35110</t>
+          <t>83606</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>43212</t>
+          <t>106555</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>42,84%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15994</t>
+          <t>46128</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13374</t>
+          <t>37930</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18737</t>
+          <t>55224</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>44,1%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19813</t>
+          <t>52486</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16929</t>
+          <t>44109</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22897</t>
+          <t>59679</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>48,34%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>35807</t>
+          <t>98614</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>31848</t>
+          <t>87583</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>40232</t>
+          <t>110548</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>37,42%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>35,22%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>44,45%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>45253</t>
+          <t>125231</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>45253</t>
+          <t>125231</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>45253</t>
+          <t>125231</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>50442</t>
+          <t>123468</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>50442</t>
+          <t>123468</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>50442</t>
+          <t>123468</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>95695</t>
+          <t>248699</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>95695</t>
+          <t>248699</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>95695</t>
+          <t>248699</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3899</t>
+          <t>8183</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5987</t>
+          <t>13014</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>2179</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>892</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>5059</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>10363</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>6679</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>7756</t>
+          <t>15354</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15218</t>
+          <t>28425</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12198</t>
+          <t>21860</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18714</t>
+          <t>35859</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11375</t>
+          <t>21693</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>8994</t>
+          <t>16207</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>14533</t>
+          <t>27827</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>26594</t>
+          <t>50118</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>22731</t>
+          <t>41282</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>31250</t>
+          <t>58996</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>20,03%</t>
         </is>
       </c>
     </row>
@@ -2669,102 +2669,102 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24612</t>
+          <t>53640</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21112</t>
+          <t>45477</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>28034</t>
+          <t>62814</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
+          <t>36,0%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>30,52%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>42,16%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>61268</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>53160</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>69804</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>42,08%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>36,51%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>47,94%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>114908</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>103244</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>126034</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>39,01%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
           <t>35,05%</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>30,07%</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>39,92%</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>30060</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>26512</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>33908</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>42,34%</t>
-        </is>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>37,34%</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>47,76%</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>54672</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>49632</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>59973</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>38,72%</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="inlineStr">
-        <is>
-          <t>35,15%</t>
-        </is>
-      </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>42,78%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26491</t>
+          <t>58733</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22836</t>
+          <t>50842</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30272</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>45,73%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27952</t>
+          <t>60476</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>24204</t>
+          <t>52203</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>31651</t>
+          <t>69370</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>54442</t>
+          <t>119209</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>49546</t>
+          <t>107217</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>59441</t>
+          <t>132192</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>44,87%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>70220</t>
+          <t>148982</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>70220</t>
+          <t>148982</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>70220</t>
+          <t>148982</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>70992</t>
+          <t>145616</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>70992</t>
+          <t>145616</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>70992</t>
+          <t>145616</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>141212</t>
+          <t>294598</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>141212</t>
+          <t>294598</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>141212</t>
+          <t>294598</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3012,32 +3012,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>2140</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>8304</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3047,32 +3047,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>776</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>5195</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3082,32 +3082,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>3198</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1797</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4854</t>
+          <t>9960</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -3125,32 +3125,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>10399</t>
+          <t>23511</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8130</t>
+          <t>17747</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>13483</t>
+          <t>30395</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,32 +3160,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10472</t>
+          <t>16679</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7908</t>
+          <t>12291</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>13282</t>
+          <t>23047</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,32 +3195,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>20870</t>
+          <t>40190</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>17465</t>
+          <t>31978</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>24941</t>
+          <t>49569</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>19,17%</t>
         </is>
       </c>
     </row>
@@ -3238,32 +3238,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22253</t>
+          <t>42378</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>18885</t>
+          <t>35992</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25302</t>
+          <t>49860</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>40,32%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,32 +3273,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>36599</t>
+          <t>67471</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>32775</t>
+          <t>59987</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>40592</t>
+          <t>75110</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>46,65%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>55,67%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,32 +3308,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>58851</t>
+          <t>109849</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>53759</t>
+          <t>99069</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>63814</t>
+          <t>121130</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>46,84%</t>
         </is>
       </c>
     </row>
@@ -3351,32 +3351,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>29304</t>
+          <t>53588</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25723</t>
+          <t>45951</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>32814</t>
+          <t>61552</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>43,34%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,32 +3386,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>30108</t>
+          <t>48856</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>26647</t>
+          <t>41766</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>33761</t>
+          <t>56007</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,32 +3421,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>59411</t>
+          <t>102444</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>53985</t>
+          <t>92540</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>64604</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>43,45%</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>63884</t>
+          <t>123659</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>63884</t>
+          <t>123659</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>63884</t>
+          <t>123659</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>78448</t>
+          <t>134931</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>78448</t>
+          <t>134931</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>78448</t>
+          <t>134931</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>142331</t>
+          <t>258589</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>142331</t>
+          <t>258589</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>142331</t>
+          <t>258589</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>383</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
@@ -3626,12 +3626,12 @@
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>1394</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>383</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
@@ -3661,12 +3661,12 @@
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>1552</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -3694,32 +3694,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8957</t>
+          <t>12451</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6513</t>
+          <t>8988</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11848</t>
+          <t>17388</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3729,32 +3729,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>10782</t>
+          <t>16960</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>13015</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>13794</t>
+          <t>21824</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3764,32 +3764,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>19739</t>
+          <t>29410</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>16121</t>
+          <t>23864</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>23971</t>
+          <t>36026</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>18,36%</t>
         </is>
       </c>
     </row>
@@ -3807,32 +3807,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>22752</t>
+          <t>38595</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>19543</t>
+          <t>33254</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>25828</t>
+          <t>44286</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3842,32 +3842,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>30577</t>
+          <t>52659</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>27108</t>
+          <t>46462</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>33895</t>
+          <t>58619</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>49,96%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>55,61%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3877,32 +3877,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>53329</t>
+          <t>91254</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>48613</t>
+          <t>83076</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>58385</t>
+          <t>99704</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>46,52%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>50,83%</t>
         </is>
       </c>
     </row>
@@ -3920,32 +3920,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>24267</t>
+          <t>39718</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>21208</t>
+          <t>34129</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>27761</t>
+          <t>45545</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>50,18%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3955,32 +3955,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>22760</t>
+          <t>35404</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>19480</t>
+          <t>29994</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>26146</t>
+          <t>40942</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,32 +3990,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>47027</t>
+          <t>75122</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>42639</t>
+          <t>67491</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>52024</t>
+          <t>82970</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>42,3%</t>
         </is>
       </c>
     </row>
@@ -4033,17 +4033,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>55976</t>
+          <t>90764</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>55976</t>
+          <t>90764</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>55976</t>
+          <t>90764</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>64541</t>
+          <t>105405</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>64541</t>
+          <t>105405</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>64541</t>
+          <t>105405</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4103,17 +4103,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>120517</t>
+          <t>196169</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>120517</t>
+          <t>196169</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>120517</t>
+          <t>196169</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>224</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -4160,92 +4160,92 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>1197</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>3,15%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>1783</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="W34" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -4263,32 +4263,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>7282</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>3663</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>7682</t>
+          <t>11075</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4298,32 +4298,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>7745</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>2774</t>
+          <t>4973</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>5901</t>
+          <t>12328</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4333,32 +4333,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>9409</t>
+          <t>15028</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>6904</t>
+          <t>11016</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>12583</t>
+          <t>20192</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -4376,32 +4376,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>15183</t>
+          <t>22900</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>12438</t>
+          <t>18297</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>17667</t>
+          <t>27941</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>36,92%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4411,32 +4411,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>20104</t>
+          <t>34632</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>16472</t>
+          <t>28683</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>23194</t>
+          <t>40855</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4446,32 +4446,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>35287</t>
+          <t>57533</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>31139</t>
+          <t>50354</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>39824</t>
+          <t>65051</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>33,38%</t>
         </is>
       </c>
     </row>
@@ -4489,32 +4489,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>27509</t>
+          <t>45272</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>24314</t>
+          <t>39455</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>30305</t>
+          <t>50349</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>62,86%</t>
+          <t>66,53%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4524,32 +4524,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>51584</t>
+          <t>76834</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>48226</t>
+          <t>70306</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>55110</t>
+          <t>82855</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>67,98%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>72,63%</t>
+          <t>69,5%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4559,32 +4559,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>79093</t>
+          <t>122107</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>74561</t>
+          <t>113733</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>83795</t>
+          <t>130146</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>63,74%</t>
+          <t>62,65%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>60,09%</t>
+          <t>58,36%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>67,53%</t>
+          <t>66,78%</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>48207</t>
+          <t>75678</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>48207</t>
+          <t>75678</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>48207</t>
+          <t>75678</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4637,17 +4637,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>75877</t>
+          <t>119212</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>75877</t>
+          <t>119212</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>75877</t>
+          <t>119212</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4672,17 +4672,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>124084</t>
+          <t>194891</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>124084</t>
+          <t>194891</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>124084</t>
+          <t>194891</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4719,32 +4719,32 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>10443</t>
+          <t>23606</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>7759</t>
+          <t>18368</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>13721</t>
+          <t>31836</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4754,32 +4754,32 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>5896</t>
+          <t>10032</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>6492</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>8277</t>
+          <t>14791</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>16339</t>
+          <t>33639</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>13097</t>
+          <t>26477</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>20305</t>
+          <t>42464</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -4832,32 +4832,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>55481</t>
+          <t>118388</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>49744</t>
+          <t>104361</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>61369</t>
+          <t>133555</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4867,32 +4867,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>52180</t>
+          <t>105058</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>46096</t>
+          <t>93530</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>57980</t>
+          <t>120179</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4902,22 +4902,22 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>107661</t>
+          <t>223446</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>99216</t>
+          <t>204154</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>116333</t>
+          <t>245430</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -4945,22 +4945,22 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>117743</t>
+          <t>251581</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>109642</t>
+          <t>233447</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>124851</t>
+          <t>271238</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4980,32 +4980,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>154470</t>
+          <t>312109</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>145560</t>
+          <t>293047</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>162634</t>
+          <t>329405</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5015,32 +5015,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>272212</t>
+          <t>563690</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>260723</t>
+          <t>538269</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>284284</t>
+          <t>588420</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>38,94%</t>
+          <t>39,16%</t>
         </is>
       </c>
     </row>
@@ -5058,32 +5058,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>152263</t>
+          <t>321678</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>144467</t>
+          <t>302572</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>160316</t>
+          <t>341534</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>47,75%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5093,32 +5093,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>181559</t>
+          <t>360182</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>173041</t>
+          <t>341976</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>190310</t>
+          <t>380297</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>48,3%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5128,32 +5128,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>333821</t>
+          <t>681860</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>322314</t>
+          <t>652929</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>346188</t>
+          <t>705872</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>44,15%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>47,42%</t>
+          <t>46,98%</t>
         </is>
       </c>
     </row>
@@ -5171,17 +5171,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>335930</t>
+          <t>715253</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>335930</t>
+          <t>715253</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>335930</t>
+          <t>715253</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5206,17 +5206,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>394104</t>
+          <t>787382</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>394104</t>
+          <t>787382</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>394104</t>
+          <t>787382</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5241,17 +5241,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>730033</t>
+          <t>1502635</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>730033</t>
+          <t>1502635</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>730033</t>
+          <t>1502635</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5536,12 +5536,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18632</t>
+          <t>15487</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5551,12 +5551,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7357</t>
+          <t>6862</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3319</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>18629</t>
+          <t>17647</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5621,12 +5621,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -5649,12 +5649,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24798</t>
+          <t>24803</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63757</t>
+          <t>66846</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9791</t>
+          <t>9646</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30965</t>
+          <t>32633</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5699,12 +5699,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>41600</t>
+          <t>40223</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>85671</t>
+          <t>86711</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5734,12 +5734,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>21,03%</t>
         </is>
       </c>
     </row>
@@ -5762,12 +5762,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67091</t>
+          <t>65485</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>118626</t>
+          <t>114735</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5777,12 +5777,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,63%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>56731</t>
+          <t>57719</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>94081</t>
+          <t>94541</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5812,12 +5812,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5832,12 +5832,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>135966</t>
+          <t>132053</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>199040</t>
+          <t>196304</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5847,12 +5847,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>48,27%</t>
+          <t>47,61%</t>
         </is>
       </c>
     </row>
@@ -5875,12 +5875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64391</t>
+          <t>64843</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>118019</t>
+          <t>117837</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5890,12 +5890,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>51,28%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5910,12 +5910,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>69832</t>
+          <t>69360</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>106666</t>
+          <t>105506</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5925,12 +5925,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>38,25%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>58,43%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5945,12 +5945,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>142078</t>
+          <t>146830</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>207669</t>
+          <t>211570</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5960,12 +5960,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>51,31%</t>
         </is>
       </c>
     </row>
@@ -6105,12 +6105,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11267</t>
+          <t>11507</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32353</t>
+          <t>31405</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6120,12 +6120,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -6140,12 +6140,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>928</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11100</t>
+          <t>11258</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>12128</t>
+          <t>11317</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>37077</t>
+          <t>37424</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6190,12 +6190,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -6218,12 +6218,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40118</t>
+          <t>42727</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>73225</t>
+          <t>75197</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6233,12 +6233,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6253,12 +6253,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>65822</t>
+          <t>64874</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>214726</t>
+          <t>217158</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>68,29%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6288,12 +6288,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>118970</t>
+          <t>121466</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>318713</t>
+          <t>307381</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>59,01%</t>
+          <t>56,91%</t>
         </is>
       </c>
     </row>
@@ -6331,12 +6331,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>57965</t>
+          <t>58548</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97267</t>
+          <t>96116</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6346,12 +6346,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53209</t>
+          <t>48903</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>141036</t>
+          <t>141213</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6381,12 +6381,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>44,85%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6401,12 +6401,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>112787</t>
+          <t>114459</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>217527</t>
+          <t>218536</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6416,12 +6416,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>40,46%</t>
         </is>
       </c>
     </row>
@@ -6444,12 +6444,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>55086</t>
+          <t>55704</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94231</t>
+          <t>93888</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6459,12 +6459,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -6479,12 +6479,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>40852</t>
+          <t>39999</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>113046</t>
+          <t>111428</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6494,12 +6494,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>35,44%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -6514,12 +6514,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>95090</t>
+          <t>103668</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>189297</t>
+          <t>190383</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6529,12 +6529,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>35,25%</t>
         </is>
       </c>
     </row>
@@ -6674,12 +6674,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16441</t>
+          <t>16386</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>36294</t>
+          <t>36100</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6689,12 +6689,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6709,12 +6709,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4554</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>14327</t>
+          <t>13546</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6724,12 +6724,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>23509</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>45999</t>
+          <t>45847</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6759,12 +6759,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,27%</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66761</t>
+          <t>67727</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>99465</t>
+          <t>101791</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6802,12 +6802,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6822,12 +6822,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57392</t>
+          <t>57771</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82056</t>
+          <t>82570</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -6857,12 +6857,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>131951</t>
+          <t>131583</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>173888</t>
+          <t>172051</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6872,12 +6872,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>27,27%</t>
         </is>
       </c>
     </row>
@@ -6900,12 +6900,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>79561</t>
+          <t>79292</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>114645</t>
+          <t>113559</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6915,12 +6915,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6935,12 +6935,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>147150</t>
+          <t>148561</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>176654</t>
+          <t>177936</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6950,12 +6950,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>54,78%</t>
+          <t>55,18%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6970,12 +6970,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>234730</t>
+          <t>234748</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>283348</t>
+          <t>281157</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>44,9%</t>
+          <t>44,56%</t>
         </is>
       </c>
     </row>
@@ -7013,12 +7013,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88428</t>
+          <t>86312</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>123634</t>
+          <t>122070</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -7048,12 +7048,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70226</t>
+          <t>69222</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>97291</t>
+          <t>94834</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -7063,12 +7063,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -7083,12 +7083,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>164157</t>
+          <t>166298</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>207259</t>
+          <t>210361</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -7098,12 +7098,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>33,34%</t>
         </is>
       </c>
     </row>
@@ -7243,12 +7243,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4075</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36769</t>
+          <t>36888</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7258,12 +7258,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7278,12 +7278,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6935</t>
+          <t>6922</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17797</t>
+          <t>17913</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -7293,12 +7293,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -7313,12 +7313,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12476</t>
+          <t>12565</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>45346</t>
+          <t>44709</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -7328,12 +7328,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,35%</t>
         </is>
       </c>
     </row>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>124560</t>
+          <t>125671</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>520589</t>
+          <t>530283</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>83,29%</t>
+          <t>84,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7391,12 +7391,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>54371</t>
+          <t>55153</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>78291</t>
+          <t>76989</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7406,12 +7406,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -7426,12 +7426,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>183992</t>
+          <t>186229</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>726662</t>
+          <t>703541</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -7441,12 +7441,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>70,75%</t>
+          <t>68,5%</t>
         </is>
       </c>
     </row>
@@ -7469,12 +7469,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>50519</t>
+          <t>43153</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>233713</t>
+          <t>233569</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7484,12 +7484,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -7504,12 +7504,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188216</t>
+          <t>186631</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>220080</t>
+          <t>219743</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -7519,12 +7519,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>46,82%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>54,66%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>161698</t>
+          <t>162024</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>456667</t>
+          <t>455201</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>44,32%</t>
         </is>
       </c>
     </row>
@@ -7582,12 +7582,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45900</t>
+          <t>45245</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>249867</t>
+          <t>248121</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7597,12 +7597,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7617,12 +7617,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>106800</t>
+          <t>107106</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>135965</t>
+          <t>135357</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>125634</t>
+          <t>145977</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>357303</t>
+          <t>360677</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7667,12 +7667,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>35,12%</t>
         </is>
       </c>
     </row>
@@ -7812,12 +7812,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8937</t>
+          <t>8771</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>23228</t>
+          <t>23063</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7827,12 +7827,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7847,12 +7847,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3064</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>10057</t>
+          <t>10573</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7862,12 +7862,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -7882,12 +7882,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>13846</t>
+          <t>14439</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>29520</t>
+          <t>30005</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7897,12 +7897,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -7925,12 +7925,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>45581</t>
+          <t>45394</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>71424</t>
+          <t>70544</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>46876</t>
+          <t>46157</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>66917</t>
+          <t>67854</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7975,12 +7975,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7995,12 +7995,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>96848</t>
+          <t>97922</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>130545</t>
+          <t>131021</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -8010,12 +8010,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>19,95%</t>
         </is>
       </c>
     </row>
@@ -8038,12 +8038,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>109686</t>
+          <t>111593</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>142837</t>
+          <t>144774</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -8053,12 +8053,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -8073,12 +8073,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>151449</t>
+          <t>152953</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>179499</t>
+          <t>178886</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>56,34%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -8108,12 +8108,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>271572</t>
+          <t>269784</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>313771</t>
+          <t>314535</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -8123,12 +8123,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>47,9%</t>
         </is>
       </c>
     </row>
@@ -8151,12 +8151,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>124913</t>
+          <t>122971</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>158395</t>
+          <t>155679</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -8166,12 +8166,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -8186,12 +8186,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>78019</t>
+          <t>78591</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>103063</t>
+          <t>101765</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -8201,12 +8201,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -8221,12 +8221,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>210097</t>
+          <t>208748</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>249381</t>
+          <t>251253</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>38,26%</t>
         </is>
       </c>
     </row>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>4517</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>6182</t>
+          <t>6187</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -8451,12 +8451,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>782</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>7690</t>
+          <t>8297</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -8466,12 +8466,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -8494,12 +8494,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>13681</t>
+          <t>13873</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>27519</t>
+          <t>27907</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -8509,12 +8509,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -8529,12 +8529,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>7436</t>
+          <t>6282</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>45608</t>
+          <t>46019</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -8544,12 +8544,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>18448</t>
+          <t>19725</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>67045</t>
+          <t>67759</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8579,12 +8579,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,29%</t>
         </is>
       </c>
     </row>
@@ -8607,12 +8607,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>86356</t>
+          <t>85927</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>110375</t>
+          <t>109946</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8622,12 +8622,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8642,12 +8642,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>225429</t>
+          <t>226727</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>411408</t>
+          <t>410627</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8657,12 +8657,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>50,05%</t>
+          <t>50,34%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8677,12 +8677,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>319666</t>
+          <t>319702</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>553899</t>
+          <t>546195</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8692,12 +8692,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>84,11%</t>
+          <t>82,94%</t>
         </is>
       </c>
     </row>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>78847</t>
+          <t>76472</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>100099</t>
+          <t>99829</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8735,12 +8735,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>48,11%</t>
+          <t>47,98%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>30625</t>
+          <t>32250</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>178484</t>
+          <t>176254</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8770,12 +8770,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -8790,12 +8790,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>80040</t>
+          <t>88074</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>269194</t>
+          <t>270270</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8805,12 +8805,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>41,04%</t>
         </is>
       </c>
     </row>
@@ -9063,12 +9063,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>6523</t>
+          <t>6739</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>16761</t>
+          <t>17288</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -9078,12 +9078,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>9701</t>
+          <t>9738</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -9113,12 +9113,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -9133,12 +9133,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>11255</t>
+          <t>11007</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>24099</t>
+          <t>22908</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -9148,12 +9148,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,95%</t>
         </is>
       </c>
     </row>
@@ -9176,12 +9176,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>46243</t>
+          <t>46668</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>65730</t>
+          <t>66172</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -9191,12 +9191,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>43,31%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>72819</t>
+          <t>73192</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>94378</t>
+          <t>94082</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>40,37%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -9246,12 +9246,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>126026</t>
+          <t>126097</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>153736</t>
+          <t>153739</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
@@ -9289,12 +9289,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>74542</t>
+          <t>74323</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>94615</t>
+          <t>94886</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -9304,12 +9304,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>62,52%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -9324,12 +9324,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>133130</t>
+          <t>133011</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>154827</t>
+          <t>154427</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -9339,12 +9339,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>57,13%</t>
+          <t>57,08%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>66,44%</t>
+          <t>66,27%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -9359,12 +9359,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>213700</t>
+          <t>213616</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>243488</t>
+          <t>243225</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -9374,12 +9374,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>55,51%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>63,21%</t>
         </is>
       </c>
     </row>
@@ -9519,12 +9519,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>58165</t>
+          <t>57968</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>111472</t>
+          <t>110116</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -9534,12 +9534,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>22696</t>
+          <t>22486</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>45518</t>
+          <t>45952</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -9569,12 +9569,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -9589,12 +9589,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>90530</t>
+          <t>93012</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>145903</t>
+          <t>146494</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -9604,12 +9604,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,4%</t>
         </is>
       </c>
     </row>
@@ -9632,12 +9632,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>385908</t>
+          <t>388136</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1064477</t>
+          <t>1137782</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -9647,12 +9647,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>54,49%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -9667,12 +9667,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>272991</t>
+          <t>276947</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>585599</t>
+          <t>576338</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -9682,12 +9682,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -9702,12 +9702,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>706096</t>
+          <t>701020</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>1659741</t>
+          <t>1630474</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>37,83%</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>457579</t>
+          <t>464146</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>784911</t>
+          <t>784837</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
@@ -9780,12 +9780,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>989257</t>
+          <t>985399</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>1435973</t>
+          <t>1434032</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -9795,12 +9795,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>44,51%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>64,53%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -9815,12 +9815,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>1520252</t>
+          <t>1523413</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>2174394</t>
+          <t>2126416</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>49,33%</t>
         </is>
       </c>
     </row>
@@ -9858,12 +9858,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>494840</t>
+          <t>476470</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>841869</t>
+          <t>837426</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -9873,12 +9873,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -9893,12 +9893,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>513946</t>
+          <t>508373</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>794967</t>
+          <t>789965</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>1101361</t>
+          <t>1142088</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>1587067</t>
+          <t>1596698</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -9943,12 +9943,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>37,04%</t>
         </is>
       </c>
     </row>
@@ -15126,12 +15126,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10477</t>
+          <t>10746</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19449</t>
+          <t>19157</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -15141,12 +15141,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -15161,12 +15161,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4348</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11460</t>
+          <t>11333</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -15176,12 +15176,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -15196,12 +15196,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16123</t>
+          <t>15852</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>27657</t>
+          <t>27833</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -15211,12 +15211,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>23,08%</t>
         </is>
       </c>
     </row>
@@ -15239,12 +15239,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15853</t>
+          <t>16031</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26602</t>
+          <t>26964</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -15254,82 +15254,82 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>44,06%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23505</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18754</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28647</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39,59%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>31,59%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>48,25%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>44805</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>37317</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>52406</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>37,16%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>30,95%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
           <t>43,47%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>23505</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>18759</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>28962</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>39,59%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>31,6%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>48,78%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>44805</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>37684</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>52707</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>37,16%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>31,26%</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>43,72%</t>
         </is>
       </c>
     </row>
@@ -15352,12 +15352,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6390</t>
+          <t>6746</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -15367,12 +15367,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -15387,12 +15387,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2156</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8331</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -15402,12 +15402,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -15422,12 +15422,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>4318</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>11123</t>
+          <t>11337</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -15437,12 +15437,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -15465,12 +15465,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17640</t>
+          <t>17277</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27803</t>
+          <t>28055</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -15480,12 +15480,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -15500,12 +15500,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19222</t>
+          <t>19893</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30083</t>
+          <t>30231</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -15515,12 +15515,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>50,67%</t>
+          <t>50,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -15535,12 +15535,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>39631</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>54444</t>
+          <t>54654</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -15550,12 +15550,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>45,33%</t>
         </is>
       </c>
     </row>
@@ -15695,12 +15695,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15346</t>
+          <t>15532</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27471</t>
+          <t>28146</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -15710,12 +15710,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -15730,12 +15730,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10383</t>
+          <t>9978</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22373</t>
+          <t>21890</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -15745,12 +15745,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -15765,12 +15765,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>27629</t>
+          <t>28159</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>46321</t>
+          <t>44834</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -15780,12 +15780,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>18,51%</t>
         </is>
       </c>
     </row>
@@ -15808,12 +15808,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25059</t>
+          <t>24785</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38559</t>
+          <t>38923</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -15823,12 +15823,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -15843,12 +15843,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>44648</t>
+          <t>44612</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>60816</t>
+          <t>61366</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -15858,12 +15858,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>49,73%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -15878,12 +15878,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>73298</t>
+          <t>72844</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>95283</t>
+          <t>94303</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -15893,12 +15893,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>38,94%</t>
         </is>
       </c>
     </row>
@@ -15921,12 +15921,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8127</t>
+          <t>7932</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17147</t>
+          <t>16727</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -15936,12 +15936,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -15956,12 +15956,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7234</t>
+          <t>7416</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17342</t>
+          <t>17561</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -15971,12 +15971,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -15991,12 +15991,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>17155</t>
+          <t>17398</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>30353</t>
+          <t>29973</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -16006,12 +16006,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>12,38%</t>
         </is>
       </c>
     </row>
@@ -16034,12 +16034,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47493</t>
+          <t>47387</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>63079</t>
+          <t>62662</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -16049,12 +16049,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>39,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -16069,12 +16069,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>36031</t>
+          <t>36353</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>52494</t>
+          <t>52145</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -16084,12 +16084,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -16104,12 +16104,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>87472</t>
+          <t>88269</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>110392</t>
+          <t>111871</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -16119,12 +16119,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>46,19%</t>
         </is>
       </c>
     </row>
@@ -16264,12 +16264,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19024</t>
+          <t>19222</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34319</t>
+          <t>34023</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -16279,12 +16279,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -16299,12 +16299,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8770</t>
+          <t>8693</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>19072</t>
+          <t>18160</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -16314,12 +16314,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -16334,12 +16334,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>29791</t>
+          <t>29741</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>48283</t>
+          <t>47933</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -16349,12 +16349,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,23%</t>
         </is>
       </c>
     </row>
@@ -16377,12 +16377,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37830</t>
+          <t>36360</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>54568</t>
+          <t>53893</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -16392,12 +16392,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>40,23%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -16412,12 +16412,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>38834</t>
+          <t>38830</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>56384</t>
+          <t>55328</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -16432,7 +16432,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -16447,12 +16447,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>81230</t>
+          <t>81381</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>104367</t>
+          <t>104506</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -16462,12 +16462,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>39,74%</t>
         </is>
       </c>
     </row>
@@ -16490,12 +16490,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5992</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21639</t>
+          <t>24077</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -16505,12 +16505,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -16525,12 +16525,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10258</t>
+          <t>9895</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23418</t>
+          <t>22706</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -16540,12 +16540,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -16560,12 +16560,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>18239</t>
+          <t>18623</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>38863</t>
+          <t>37456</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -16575,12 +16575,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,24%</t>
         </is>
       </c>
     </row>
@@ -16603,12 +16603,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44124</t>
+          <t>43813</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>60927</t>
+          <t>60096</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -16618,12 +16618,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -16638,12 +16638,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44643</t>
+          <t>45775</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>62229</t>
+          <t>62053</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -16653,12 +16653,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>48,23%</t>
+          <t>48,1%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -16673,12 +16673,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>94059</t>
+          <t>93664</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>118254</t>
+          <t>116776</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -16688,12 +16688,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>44,41%</t>
         </is>
       </c>
     </row>
@@ -16833,12 +16833,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11590</t>
+          <t>10952</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21842</t>
+          <t>22103</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -16848,12 +16848,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -16868,12 +16868,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12877</t>
+          <t>12384</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -16883,12 +16883,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -16903,12 +16903,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>18236</t>
+          <t>17803</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>31637</t>
+          <t>31810</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -16918,12 +16918,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,75%</t>
         </is>
       </c>
     </row>
@@ -16946,12 +16946,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>34923</t>
+          <t>34051</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>51359</t>
+          <t>51247</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -16961,12 +16961,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -16981,12 +16981,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>37423</t>
+          <t>38323</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>53495</t>
+          <t>54792</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -16996,12 +16996,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>44,88%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -17016,12 +17016,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>77497</t>
+          <t>76735</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>102252</t>
+          <t>99762</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -17031,12 +17031,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>43,11%</t>
         </is>
       </c>
     </row>
@@ -17059,12 +17059,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5930</t>
+          <t>6103</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14669</t>
+          <t>14300</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -17074,12 +17074,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -17094,12 +17094,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6829</t>
+          <t>6821</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>16402</t>
+          <t>16267</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -17109,12 +17109,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -17129,12 +17129,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>14731</t>
+          <t>14978</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>27193</t>
+          <t>28465</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -17144,12 +17144,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>12,3%</t>
         </is>
       </c>
     </row>
@@ -17172,12 +17172,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>36809</t>
+          <t>37127</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>52389</t>
+          <t>52144</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -17187,12 +17187,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>33,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>46,48%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -17207,12 +17207,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>46937</t>
+          <t>47172</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>63032</t>
+          <t>62958</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -17222,12 +17222,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -17242,12 +17242,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>87966</t>
+          <t>89003</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>110848</t>
+          <t>110137</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -17257,12 +17257,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>38,46%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>47,6%</t>
         </is>
       </c>
     </row>
@@ -17402,12 +17402,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5518</t>
+          <t>5443</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>13342</t>
+          <t>13376</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -17417,12 +17417,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -17437,12 +17437,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>8883</t>
+          <t>9188</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -17452,12 +17452,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -17472,12 +17472,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>10279</t>
+          <t>10052</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>20313</t>
+          <t>19540</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -17487,12 +17487,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>9,7%</t>
         </is>
       </c>
     </row>
@@ -17515,12 +17515,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>39185</t>
+          <t>39207</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>53116</t>
+          <t>53209</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -17530,12 +17530,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>59,2%</t>
+          <t>59,3%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -17550,12 +17550,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>44992</t>
+          <t>45300</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>59400</t>
+          <t>59875</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -17565,12 +17565,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>53,2%</t>
+          <t>53,62%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -17585,12 +17585,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>87738</t>
+          <t>87564</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>107861</t>
+          <t>108498</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -17600,12 +17600,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>43,57%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>53,56%</t>
+          <t>53,88%</t>
         </is>
       </c>
     </row>
@@ -17628,12 +17628,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3799</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>10609</t>
+          <t>10081</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -17643,12 +17643,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -17663,12 +17663,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>12095</t>
+          <t>11912</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>22212</t>
+          <t>21721</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -17678,12 +17678,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -17698,12 +17698,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>17203</t>
+          <t>17209</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>28903</t>
+          <t>29157</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -17713,12 +17713,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,48%</t>
         </is>
       </c>
     </row>
@@ -17741,12 +17741,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>22716</t>
+          <t>22130</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>34651</t>
+          <t>34004</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -17756,12 +17756,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>38,62%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -17776,12 +17776,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>31238</t>
+          <t>30332</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>45813</t>
+          <t>45128</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -17791,12 +17791,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -17811,12 +17811,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>57994</t>
+          <t>56773</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>76649</t>
+          <t>76156</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -17826,12 +17826,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>37,82%</t>
         </is>
       </c>
     </row>
@@ -17971,12 +17971,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>824</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4738</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -17986,12 +17986,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -18006,12 +18006,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>821</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>4910</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -18021,12 +18021,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -18041,12 +18041,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>2263</t>
+          <t>2363</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>7359</t>
+          <t>7593</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -18056,12 +18056,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,07%</t>
         </is>
       </c>
     </row>
@@ -18084,12 +18084,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>35562</t>
+          <t>35753</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>46359</t>
+          <t>46874</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -18099,12 +18099,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>53,79%</t>
+          <t>54,08%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>70,13%</t>
+          <t>70,91%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -18119,12 +18119,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>47670</t>
+          <t>49387</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>61014</t>
+          <t>61281</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -18134,12 +18134,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
+          <t>59,04%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>73,25%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -18154,12 +18154,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>87423</t>
+          <t>87573</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>104522</t>
+          <t>104556</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -18169,12 +18169,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>58,47%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>69,79%</t>
+          <t>69,81%</t>
         </is>
       </c>
     </row>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>3168</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -18232,12 +18232,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2143</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>7718</t>
+          <t>7146</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -18247,12 +18247,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -18267,12 +18267,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>2249</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>8118</t>
+          <t>7807</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -18282,12 +18282,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -18310,12 +18310,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>17188</t>
+          <t>17005</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>27990</t>
+          <t>28005</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -18325,12 +18325,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -18345,12 +18345,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>16840</t>
+          <t>16576</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>29814</t>
+          <t>28351</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -18360,12 +18360,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -18380,12 +18380,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>36001</t>
+          <t>36512</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>52416</t>
+          <t>52550</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -18395,12 +18395,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>35,09%</t>
         </is>
       </c>
     </row>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>723</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4856</t>
+          <t>4846</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -18580,7 +18580,7 @@
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -18595,7 +18595,7 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -18610,12 +18610,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>888</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>5125</t>
+          <t>4864</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -18625,12 +18625,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -18653,12 +18653,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>22237</t>
+          <t>22086</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>33004</t>
+          <t>32606</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -18668,12 +18668,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>60,21%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -18688,12 +18688,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>21251</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>33056</t>
+          <t>33184</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -18703,12 +18703,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -18723,12 +18723,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>47336</t>
+          <t>46746</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>63485</t>
+          <t>62551</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -18738,12 +18738,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>48,16%</t>
+          <t>47,45%</t>
         </is>
       </c>
     </row>
@@ -18766,12 +18766,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>1516</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>7726</t>
+          <t>7460</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -18781,12 +18781,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -18801,12 +18801,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>7991</t>
+          <t>7992</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -18816,7 +18816,7 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
@@ -18836,12 +18836,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>4824</t>
+          <t>4818</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>12543</t>
+          <t>12735</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -18851,12 +18851,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -18879,7 +18879,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>16634</t>
+          <t>16438</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -18894,7 +18894,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -18914,12 +18914,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>39313</t>
+          <t>38948</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>51299</t>
+          <t>51733</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -18929,12 +18929,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>66,62%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -18949,12 +18949,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>58186</t>
+          <t>59117</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>73907</t>
+          <t>75583</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -18964,12 +18964,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>44,85%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>57,34%</t>
         </is>
       </c>
     </row>
@@ -19109,12 +19109,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>78429</t>
+          <t>77842</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>103951</t>
+          <t>106029</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -19144,12 +19144,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>41981</t>
+          <t>41897</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>63444</t>
+          <t>62270</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -19159,12 +19159,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -19179,12 +19179,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>125808</t>
+          <t>124407</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>160268</t>
+          <t>157034</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -19194,12 +19194,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>11,72%</t>
         </is>
       </c>
     </row>
@@ -19222,12 +19222,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>237284</t>
+          <t>235269</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>273328</t>
+          <t>272951</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -19237,12 +19237,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -19257,12 +19257,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>285838</t>
+          <t>285014</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>323241</t>
+          <t>324678</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -19272,12 +19272,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>45,96%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -19292,12 +19292,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>532653</t>
+          <t>534472</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>584567</t>
+          <t>587097</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -19307,12 +19307,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>43,81%</t>
         </is>
       </c>
     </row>
@@ -19335,12 +19335,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>37014</t>
+          <t>37129</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>60763</t>
+          <t>58911</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -19350,12 +19350,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -19370,12 +19370,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>55610</t>
+          <t>55460</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>78544</t>
+          <t>77796</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -19385,12 +19385,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -19405,12 +19405,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>97574</t>
+          <t>97727</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>128566</t>
+          <t>130112</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -19420,12 +19420,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,71%</t>
         </is>
       </c>
     </row>
@@ -19448,12 +19448,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>228604</t>
+          <t>226729</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>262077</t>
+          <t>263824</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -19463,12 +19463,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -19483,12 +19483,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>265025</t>
+          <t>263124</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>300571</t>
+          <t>301048</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -19498,12 +19498,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>37,41%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>42,8%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -19518,12 +19518,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>501978</t>
+          <t>501483</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>554005</t>
+          <t>554400</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -19533,12 +19533,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>41,37%</t>
         </is>
       </c>
     </row>
